--- a/biology/Botanique/Halenia/Halenia.xlsx
+++ b/biology/Botanique/Halenia/Halenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halenia est un genre de plantes de la famille des Gentianaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 août 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 août 2015) :
 Halenia adpressa Allen
 Halenia alata (Mart. &amp; Gal.) Hemsl.
 Halenia alleniana Standl. ex R.L. Wilbur
@@ -593,14 +607,14 @@
 Halenia viridis (Griseb.) Gilg
 Halenia weberbaueri Allen
 Halenia weddelliana Gilg
-Selon GRIN            (20 août 2015)[3] :
+Selon GRIN            (20 août 2015) :
 Halenia corniculata (L.) Cornaz
 Halenia elliptica D. Don
-Selon ITIS      (20 août 2015)[4] :
+Selon ITIS      (20 août 2015) :
 Halenia asclepiadea (Kunth) G. Don
 Halenia deflexa (Sm.) Griseb.
 Halenia rothrockii A. Gray
-Selon NCBI  (20 août 2015)[5] :
+Selon NCBI  (20 août 2015) :
 Halenia alleniana
 Halenia aquilegiella
 Halenia brevicornis
@@ -626,7 +640,7 @@
 Halenia umbellata
 Halenia viridis
 Halenia weddelliana
-Selon The Plant List            (20 août 2015)[6] :
+Selon The Plant List            (20 août 2015) :
 Halenia adpressa C.K. Allen
 Halenia alata (M. Martens &amp; Galeotti) Hemsl.
 Halenia alleniana Standl. ex Wilbur
@@ -703,7 +717,7 @@
 Halenia viridis (Griseb.) Gilg
 Halenia weberbaueri C.K. Allen
 Halenia weddelliana Gilg
-Selon Tropicos                                           (20 août 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 août 2015) (Attention liste brute contenant possiblement des synonymes) :
 Halenia adpressa C.K. Allen
 Halenia alata (M. Martens &amp; Galeotti) Hemsl.
 Halenia alleniana Standl. ex Wilbur
